--- a/gun-low/Excel/Language_Multiple.xlsx
+++ b/gun-low/Excel/Language_Multiple.xlsx
@@ -57,8 +57,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,35 +72,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,6 +99,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
@@ -135,7 +127,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -289,7 +289,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -298,25 +298,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="2" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="3" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
@@ -672,25 +672,25 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="8" t="str">
+      <c r="A1" s="14" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="8" t="str">
+      <c r="B1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="8" t="str">
+      <c r="C1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="8" t="str">
+      <c r="D1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="8" t="str">
+      <c r="E1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="F1" s="8" t="str">
+      <c r="F1" s="14" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="8" t="str">
+      <c r="G1" s="14" t="str">
         <v>string</v>
       </c>
       <c r="H1" s="1"/>
@@ -708,25 +708,25 @@
       <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="8" t="str">
+      <c r="A2" s="14" t="str">
         <v>Id</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="14" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="14" t="str">
         <v>Value</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="14" t="str">
         <v>Value_Ch</v>
       </c>
-      <c r="E2" s="8" t="str">
+      <c r="E2" s="14" t="str">
         <v>Value_Cht</v>
       </c>
-      <c r="F2" s="8" t="str">
+      <c r="F2" s="14" t="str">
         <v>Value_J</v>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="G2" s="14" t="str">
         <v>Value_K</v>
       </c>
       <c r="H2" s="1"/>
@@ -744,25 +744,25 @@
       <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="14" t="str">
         <v>唯一标识</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="14" t="str">
         <v>名字</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="14" t="str">
         <v>英文</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="14" t="str">
         <v>中文</v>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="E3" s="14" t="str">
         <v>繁中</v>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" s="14" t="str">
         <v>日语</v>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="G3" s="14" t="str">
         <v>韩语</v>
       </c>
       <c r="H3" s="1"/>
@@ -780,23 +780,23 @@
       <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="str">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="str">
         <v>Key|ReadByName</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="14" t="str">
         <v>MainLanguage</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="G4" s="14" t="str">
         <v>ChildLanguage</v>
       </c>
       <c r="H4" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="B22" s="1" t="str">
         <v>FreeUseOfOneRound</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="9" t="str">
         <v>{0}
 Free Use Of One Round</v>
       </c>
@@ -1421,10 +1421,10 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="9" t="str">
         <v>Get</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="9" t="str">
         <v>Get</v>
       </c>
       <c r="D25" s="1" t="str">
@@ -3079,7 +3079,7 @@
       <c r="C80" s="1" t="str">
         <v>Spitfire Gun</v>
       </c>
-      <c r="D80" s="9" t="str">
+      <c r="D80" s="7" t="str">
         <v>喷火枪</v>
       </c>
       <c r="E80" s="1"/>
@@ -3109,7 +3109,7 @@
       <c r="C81" s="1" t="str">
         <v>Fire Gun</v>
       </c>
-      <c r="D81" s="9" t="str">
+      <c r="D81" s="7" t="str">
         <v>火枪</v>
       </c>
       <c r="E81" s="1"/>
@@ -3139,7 +3139,7 @@
       <c r="C82" s="1" t="str">
         <v>Laser Gun</v>
       </c>
-      <c r="D82" s="9" t="str">
+      <c r="D82" s="7" t="str">
         <v>激光枪</v>
       </c>
       <c r="E82" s="1"/>
@@ -3169,7 +3169,7 @@
       <c r="C83" s="1" t="str">
         <v>Water Gun</v>
       </c>
-      <c r="D83" s="9" t="str">
+      <c r="D83" s="7" t="str">
         <v>水枪</v>
       </c>
       <c r="E83" s="1"/>
@@ -3199,7 +3199,7 @@
       <c r="C84" s="1" t="str">
         <v>Rocket Launcher</v>
       </c>
-      <c r="D84" s="9" t="str">
+      <c r="D84" s="7" t="str">
         <v>火箭发射器</v>
       </c>
       <c r="E84" s="1"/>
@@ -3229,7 +3229,7 @@
       <c r="C85" s="1" t="str">
         <v>Justin Gatlin</v>
       </c>
-      <c r="D85" s="9" t="str">
+      <c r="D85" s="7" t="str">
         <v>加特林</v>
       </c>
       <c r="E85" s="1"/>
@@ -3259,7 +3259,7 @@
       <c r="C86" s="1" t="str">
         <v>Tunas</v>
       </c>
-      <c r="D86" s="9" t="str">
+      <c r="D86" s="7" t="str">
         <v>金枪鱼</v>
       </c>
       <c r="E86" s="1"/>
@@ -4519,7 +4519,7 @@
       <c r="C128" s="1" t="str">
         <v>Cyber Youth</v>
       </c>
-      <c r="D128" s="10" t="str">
+      <c r="D128" s="6" t="str">
         <v>赛博少年</v>
       </c>
       <c r="E128" s="1"/>
@@ -4549,7 +4549,7 @@
       <c r="C129" s="1" t="str">
         <v>Cyber Girls</v>
       </c>
-      <c r="D129" s="10" t="str">
+      <c r="D129" s="6" t="str">
         <v>赛博少女</v>
       </c>
       <c r="E129" s="1"/>
@@ -4639,7 +4639,7 @@
       <c r="C132" s="1" t="str">
         <v>Definitely Pot Girl</v>
       </c>
-      <c r="D132" s="10" t="str">
+      <c r="D132" s="6" t="str">
         <v>一定锅少女</v>
       </c>
       <c r="E132" s="1"/>
@@ -5209,7 +5209,7 @@
       <c r="C151" s="1" t="str">
         <v>Fashionable Girl</v>
       </c>
-      <c r="D151" s="10" t="str">
+      <c r="D151" s="6" t="str">
         <v>时尚少女</v>
       </c>
       <c r="E151" s="1"/>
@@ -5299,7 +5299,7 @@
       <c r="C154" s="2" t="str">
         <v>Orange Laser Gun</v>
       </c>
-      <c r="D154" s="11" t="str">
+      <c r="D154" s="3" t="str">
         <v>橘黄激光枪</v>
       </c>
       <c r="E154" s="1"/>
@@ -5329,7 +5329,7 @@
       <c r="C155" s="2" t="str">
         <v>Claim Rewards</v>
       </c>
-      <c r="D155" s="11" t="str">
+      <c r="D155" s="3" t="str">
         <v>领取奖励</v>
       </c>
       <c r="E155" s="1"/>
@@ -5389,7 +5389,7 @@
       <c r="C157" s="2" t="str">
         <v>Daily Tasks</v>
       </c>
-      <c r="D157" s="10" t="str">
+      <c r="D157" s="6" t="str">
         <v>每日任务</v>
       </c>
       <c r="E157" s="1"/>
@@ -5419,7 +5419,7 @@
       <c r="C158" s="2" t="str">
         <v>All Tasks Have Been Completed, Waiting For Refresh</v>
       </c>
-      <c r="D158" s="10" t="str">
+      <c r="D158" s="6" t="str">
         <v>任务已全部完成，等待刷新...</v>
       </c>
       <c r="E158" s="1"/>
@@ -5539,7 +5539,7 @@
       <c r="C162" s="1" t="str">
         <v>Daily login to the game ({0}/{1})</v>
       </c>
-      <c r="D162" s="6" t="str">
+      <c r="D162" s="8" t="str">
         <v>每日登录游戏（{0}/{1}）</v>
       </c>
       <c r="E162" s="1"/>
@@ -5569,7 +5569,7 @@
       <c r="C163" s="1" t="str">
         <v>Daily online duration {2} minutes ({0}/{1})</v>
       </c>
-      <c r="D163" s="7" t="str">
+      <c r="D163" s="10" t="str">
         <v>每日在线时长{2}分钟（{0}/{1}）</v>
       </c>
       <c r="E163" s="1"/>
@@ -5629,7 +5629,7 @@
       <c r="C165" s="1" t="str">
         <v>Login {2} days per week ({0}/{1})</v>
       </c>
-      <c r="D165" s="6" t="str">
+      <c r="D165" s="8" t="str">
         <v>每周登录{2}天（{0}/{1}）</v>
       </c>
       <c r="E165" s="1"/>
@@ -5653,7 +5653,7 @@
       <c r="A166" s="1">
         <v>163</v>
       </c>
-      <c r="B166" s="6" t="str">
+      <c r="B166" s="8" t="str">
         <v>Join</v>
       </c>
       <c r="C166" s="1" t="str">
@@ -5683,7 +5683,7 @@
       <c r="A167" s="1">
         <v>164</v>
       </c>
-      <c r="B167" s="6" t="str">
+      <c r="B167" s="8" t="str">
         <v>WeaponEquipmentSuccessful</v>
       </c>
       <c r="C167" s="1" t="str">
@@ -5710,10 +5710,18 @@
       <c r="T167" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="168">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <v>SwitchingFailedYouAreAlreadyIn</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <v>Switching Failed, You Are Already In {0}</v>
+      </c>
+      <c r="D168" s="1" t="str">
+        <v>切换失败,你已在{0}中</v>
+      </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -5732,10 +5740,18 @@
       <c r="T168" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="169">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="A169" s="1">
+        <v>166</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <v>CannotSwitchTeamsFrequentlyTryAgainInSeconds</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <v>Cannot Switch Teams Frequently, Try Again In {0} Seconds</v>
+      </c>
+      <c r="D169" s="1" t="str">
+        <v>不能频繁切换队伍，{0}秒后再试</v>
+      </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -5754,10 +5770,18 @@
       <c r="T169" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="170">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="A170" s="1">
+        <v>167</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <v>SuccessfullySwitchedTeams</v>
+      </c>
+      <c r="C170" s="1" t="str">
+        <v>Successfully Switched Teams</v>
+      </c>
+      <c r="D170" s="1" t="str">
+        <v>切换队伍成功</v>
+      </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -5776,10 +5800,18 @@
       <c r="T170" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="171">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="A171" s="1">
+        <v>168</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <v>SwitchingFailedThisTeamIsFull</v>
+      </c>
+      <c r="C171" s="1" t="str">
+        <v>Switching Failed, This Team Is Full</v>
+      </c>
+      <c r="D171" s="1" t="str">
+        <v>切换失败,此队已满</v>
+      </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -5798,10 +5830,18 @@
       <c r="T171" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="A172" s="1">
+        <v>169</v>
+      </c>
+      <c r="B172" s="1" t="str">
+        <v>SwitchingFailedUnequalNumberOfPeople</v>
+      </c>
+      <c r="C172" s="1" t="str">
+        <v>Switching Failed, Unequal Number Of People</v>
+      </c>
+      <c r="D172" s="1" t="str">
+        <v>切换失败,人数不平等</v>
+      </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -5820,10 +5860,18 @@
       <c r="T172" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="173">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="A173" s="1">
+        <v>170</v>
+      </c>
+      <c r="B173" s="1" t="str">
+        <v>AlreadyOnThisTeam</v>
+      </c>
+      <c r="C173" s="1" t="str">
+        <v>Already On This Team</v>
+      </c>
+      <c r="D173" s="1" t="str">
+        <v>已在此队</v>
+      </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -8595,7 +8643,7 @@
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
-      <c r="D299" s="6"/>
+      <c r="D299" s="8"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2"/>
@@ -12906,8 +12954,8 @@
     <row customHeight="true" ht="21" r="495">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
-      <c r="C495" s="12"/>
-      <c r="D495" s="12"/>
+      <c r="C495" s="11"/>
+      <c r="D495" s="11"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
@@ -12949,7 +12997,7 @@
     </row>
     <row customHeight="true" ht="21" r="497">
       <c r="A497" s="1"/>
-      <c r="B497" s="12"/>
+      <c r="B497" s="11"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -13259,7 +13307,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
-      <c r="D511" s="3"/>
+      <c r="D511" s="12"/>
       <c r="E511" s="1"/>
       <c r="F511" s="1"/>
       <c r="G511" s="1"/>
@@ -13413,7 +13461,7 @@
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
-      <c r="D518" s="3"/>
+      <c r="D518" s="12"/>
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
@@ -13545,7 +13593,7 @@
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
-      <c r="D524" s="3"/>
+      <c r="D524" s="12"/>
       <c r="E524" s="1"/>
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
@@ -13720,7 +13768,7 @@
     <row r="532">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
-      <c r="C532" s="6"/>
+      <c r="C532" s="8"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
